--- a/data/trans_bre/P1404-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1404-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.946304078190936</v>
+        <v>-2.964342901318307</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.471647073100665</v>
+        <v>-7.362713901297983</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.618570755063989</v>
+        <v>-6.343305811906869</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.846597950704483</v>
+        <v>-3.918962400873721</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.387413133991646</v>
+        <v>-0.4077374230255337</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6321721711744708</v>
+        <v>-0.6294157557492299</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.53873313416807</v>
+        <v>-0.5174009840632348</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2480834826981823</v>
+        <v>-0.2525156420333042</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.708291747236467</v>
+        <v>4.597123839082952</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.122140362526427</v>
+        <v>0.7860234482959558</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.662504678477799</v>
+        <v>3.197861841575251</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.463662227824988</v>
+        <v>3.140006146357247</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9185780632852182</v>
+        <v>0.910684135306029</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2110450006401387</v>
+        <v>0.1451591467669461</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3195124818956074</v>
+        <v>0.388128943555889</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2922448757731463</v>
+        <v>0.2648289500177789</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.841592689584369</v>
+        <v>-5.67775961023944</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.749762969575396</v>
+        <v>-5.993109919106222</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-6.449955606413979</v>
+        <v>-6.237626139074753</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-9.153134852762333</v>
+        <v>-9.290737191645569</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5733558068959654</v>
+        <v>-0.5486981346233832</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5333077991951748</v>
+        <v>-0.5317985954755076</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4943608290167398</v>
+        <v>-0.4859059740484457</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4957981586449347</v>
+        <v>-0.5033862883164101</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.277568959600628</v>
+        <v>1.89227862008713</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.449952883325358</v>
+        <v>2.24064693324547</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.476750014299659</v>
+        <v>2.530593050257614</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-1.367704777535858</v>
+        <v>-1.486977423065889</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4072718834812864</v>
+        <v>0.3498834377991013</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3575088625889064</v>
+        <v>0.3452118206988363</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3474821175017161</v>
+        <v>0.3031808437071893</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.08992345796965039</v>
+        <v>-0.1004370516411135</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.613280942547948</v>
+        <v>-5.624615882931733</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.545021243729334</v>
+        <v>-9.309077136184287</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.331494977252489</v>
+        <v>-6.702061281117796</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.713709702714516</v>
+        <v>-3.19409385472737</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4817384442731159</v>
+        <v>-0.4923844582741561</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6163007019359827</v>
+        <v>-0.6158605899465772</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4266153912303566</v>
+        <v>-0.435525194253898</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1865229427211972</v>
+        <v>-0.1659883836670957</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.445005342162673</v>
+        <v>4.795123548528066</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.3405264148984717</v>
+        <v>-0.3153882383419324</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.436786970418202</v>
+        <v>7.158074213071466</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.418984706667361</v>
+        <v>7.818361895012758</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.568627399802722</v>
+        <v>0.5530484826184471</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.01985276223767363</v>
+        <v>-0.02772835359368305</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5593672004772045</v>
+        <v>0.5674601416558217</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4907478171302329</v>
+        <v>0.5120554166458693</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.049175023716945</v>
+        <v>-3.650315694774419</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-7.145010537884391</v>
+        <v>-6.990638834519107</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-6.146421266275302</v>
+        <v>-6.057817073624904</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.642309565211222</v>
+        <v>-5.321572962861943</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3880705778129482</v>
+        <v>-0.3699776656854269</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4800495583318529</v>
+        <v>-0.4677498408148905</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.440415184197689</v>
+        <v>-0.4293200773832532</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3265582707559526</v>
+        <v>-0.3150667039733483</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9140429233085661</v>
+        <v>1.176863255901463</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.5751222813173437</v>
+        <v>-0.593921626279945</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.3194902517421661</v>
+        <v>-0.421352805571073</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01298562515377659</v>
+        <v>-0.1795150952855049</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1209358192889067</v>
+        <v>0.1602693466618361</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.0509946150895601</v>
+        <v>-0.04811175022222659</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.02972052565444964</v>
+        <v>-0.0346553501140209</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.002453157065066532</v>
+        <v>-0.01324211692175664</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>3.191979839911865</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.199555156817916</v>
+        <v>7.199555156817908</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4162912438109447</v>
@@ -1049,7 +1049,7 @@
         <v>0.2419538768628493</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4847289728611546</v>
+        <v>0.484728972861154</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.868661104952734</v>
+        <v>-0.4783095040875002</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2563163366161179</v>
+        <v>0.8295583643704221</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.5101888576169514</v>
+        <v>-0.4014795888343306</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.175927151005173</v>
+        <v>3.523077737760304</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1227805163193661</v>
+        <v>-0.04821598262108418</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01665590899253512</v>
+        <v>0.05176486814055642</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.03978501150834353</v>
+        <v>-0.02805607570413732</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1652642149526751</v>
+        <v>0.1997912896735287</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.732823500409612</v>
+        <v>7.224761272060346</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.931472649914497</v>
+        <v>9.122270623187129</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.274286067269323</v>
+        <v>7.216537560620504</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.88385670034375</v>
+        <v>10.8339548249857</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.155396529914227</v>
+        <v>1.252072396969618</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8533640913948073</v>
+        <v>0.9036215176232815</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6552347791524898</v>
+        <v>0.6527943984070678</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8558660987602456</v>
+        <v>0.8643305182383118</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>15.53953056333092</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15.57089533659273</v>
+        <v>15.57089533659272</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>12.96240773890698</v>
@@ -1149,7 +1149,7 @@
         <v>9.823272866860892</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>7.163161853022666</v>
+        <v>7.163161853022663</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>10.57908715341634</v>
+        <v>10.51995740620125</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>14.59943808519445</v>
+        <v>15.08863828262179</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12.29838482242797</v>
+        <v>12.5706088195697</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12.23468408602447</v>
+        <v>12.44687375209471</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>4.033928220133124</v>
+        <v>3.923371851594047</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>3.193528117129989</v>
+        <v>3.266103490843369</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>2.932327615682932</v>
+        <v>3.493934186657313</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>2.54577372088379</v>
+        <v>2.34050668651947</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>15.09246249013739</v>
+        <v>15.18374142054151</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>20.65926194690762</v>
+        <v>20.92071242185317</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18.40620902056353</v>
+        <v>18.54608391318846</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18.12795390501089</v>
+        <v>18.15737841550417</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>46.03213872101327</v>
+        <v>43.82220107618355</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>55.14027607765671</v>
+        <v>54.90473841509601</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>42.93529095730133</v>
+        <v>39.11221094970593</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>17.52721522388843</v>
+        <v>19.50263264576846</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9118431040282793</v>
+        <v>0.9086954193509417</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6951557481622658</v>
+        <v>0.8529149199636382</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09991078313606437</v>
+        <v>0.1179820495680469</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2863769322579728</v>
+        <v>0.08511214146200022</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1078070119355842</v>
+        <v>0.1046158369609362</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05550975039658653</v>
+        <v>0.07633512723429871</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.007120309036982098</v>
+        <v>0.00886697556564533</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.01775823475985719</v>
+        <v>0.005332868705906876</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.746301934769079</v>
+        <v>3.822339955172277</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.015884724162265</v>
+        <v>4.148745281510563</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.466816828839546</v>
+        <v>3.336588168326022</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.218171473456297</v>
+        <v>3.094527782079311</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5147480353733639</v>
+        <v>0.5335584605602823</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3797424658101218</v>
+        <v>0.3989284888316391</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3242920665657987</v>
+        <v>0.307230376491094</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2362277398064394</v>
+        <v>0.2299354543796938</v>
       </c>
     </row>
     <row r="25">
